--- a/PlannerOpenXML/Resources/template.xlsx
+++ b/PlannerOpenXML/Resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Mowinska\source\repos\PlannerOpenXML\PlannerOpenXML\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE232EC-A177-47ED-92FF-901D292CD2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04801306-A884-4CE9-AE71-4C1E25CD3AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CD13D3A8-CCA7-4E34-9FF5-720048AFF73D}"/>
   </bookViews>
@@ -248,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,21 +288,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color theme="0"/>
       </left>
       <right/>
@@ -349,15 +334,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="0"/>
       </right>
@@ -411,94 +387,98 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="6">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="10">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="11">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="12">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="13">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="14">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="15">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="16">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="17">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="18">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,7 +500,7 @@
     <cellStyle name="Style 5" xfId="6" xr:uid="{7E20BD14-FAFA-441D-B97A-21894F06CB6D}"/>
     <cellStyle name="Style 6" xfId="7" xr:uid="{D4D07480-EBF6-4091-809A-479931866778}"/>
     <cellStyle name="Style 7" xfId="5" xr:uid="{A97B422F-1C4C-4680-AF51-F65FF111E105}"/>
-    <cellStyle name="Style 8" xfId="8" xr:uid="{C8A2B2AC-0EC4-446C-98AC-DA8D26072910}"/>
+    <cellStyle name="Style 8" xfId="8" xr:uid="{C67F46FD-9AD7-4C55-8E71-137670A0324C}"/>
     <cellStyle name="Style 9" xfId="10" xr:uid="{209E223A-2C80-433B-AE11-61E113796F48}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C79EF3-C287-4AF4-9D57-29023633C970}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,94 +850,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="34.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
     </row>
